--- a/数据整理/stocks/A股/创业板/300384-三联虹普.xlsx
+++ b/数据整理/stocks/A股/创业板/300384-三联虹普.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>210002</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰红利价值混合</t>
+          <t>金鹰核心资源混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>74.22</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2052</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>210009</t>
+          <t>210002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰核心资源混合</t>
+          <t>金鹰红利价值混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.93</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>74.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>210002</t>
+          <t>160314</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰红利价值混合</t>
+          <t>华夏行业混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>79.31</t>
+          <t>24.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7753</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.60</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.01</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1914</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160314</t>
+          <t>210002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏行业混合(LOF)</t>
+          <t>金鹰红利价值混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300384-三联虹普.xlsx
+++ b/数据整理/stocks/A股/创业板/300384-三联虹普.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300384-三联虹普.xlsx
+++ b/数据整理/stocks/A股/创业板/300384-三联虹普.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300384-三联虹普.xlsx
+++ b/数据整理/stocks/A股/创业板/300384-三联虹普.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -849,7 +850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,17 +861,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -880,14 +901,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6956</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -896,14 +939,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.99</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -912,13 +1045,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300384-三联虹普.xlsx
+++ b/数据整理/stocks/A股/创业板/300384-三联虹普.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -982,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,17 +994,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1013,14 +1034,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.79</v>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7415</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1029,14 +1072,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="4">
@@ -1045,14 +1178,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.99</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="5">
@@ -1061,13 +1194,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300384-三联虹普.xlsx
+++ b/数据整理/stocks/A股/创业板/300384-三联虹普.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1115,7 +1116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,17 +1127,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1146,14 +1167,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.82</v>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4130</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1162,14 +1205,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.79</v>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2552</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1178,14 +1243,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.09</v>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1943</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1194,14 +1281,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.99</v>
+          <t>014109</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1210,13 +1319,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013280</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300384-三联虹普.xlsx
+++ b/数据整理/stocks/A股/创业板/300384-三联虹普.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>210009</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>金鹰核心资源混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.93</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2052</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>210002</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>金鹰红利价值混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>74.22</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0264</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -639,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160314</t>
+          <t>519029</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏行业混合(LOF)</t>
+          <t>华夏稳增混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.77</t>
+          <t>9.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>94.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7753</t>
+          <t>0.4130</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>210009</t>
+          <t>161611</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰核心资源混合</t>
+          <t>融通内需驱动混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>8.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>75.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1914</t>
+          <t>0.2552</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +715,150 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>210002</t>
+          <t>162204</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰红利价值混合</t>
+          <t>泰达宏利行业精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>8.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79.31</t>
+          <t>79.70</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0246</t>
+          <t>0.1943</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014109</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013280</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -758,7 +872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,7 +893,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -809,36 +923,74 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>582003</t>
+          <t>519029</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东吴配置优化灵活配置混合</t>
+          <t>华夏稳增混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>10.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.70</t>
+          <t>92.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0945</t>
+          <t>0.7415</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -984,7 +1136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1005,7 +1157,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1035,74 +1187,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519029</t>
+          <t>582003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏稳增混合</t>
+          <t>东吴配置优化灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.92</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.99</t>
+          <t>90.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.79</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7415</t>
+          <t>0.0945</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003501</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰达宏利睿智稳健灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>73.79</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0743</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1116,7 +1230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1251,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1167,36 +1281,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519029</t>
+          <t>160314</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏稳增混合</t>
+          <t>华夏行业混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.56</t>
+          <t>24.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4130</t>
+          <t>0.7753</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1205,36 +1319,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161611</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通内需驱动混合</t>
+          <t>金鹰核心资源混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.62</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75.14</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2552</t>
+          <t>0.1914</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1243,150 +1357,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>162204</t>
+          <t>210002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰达宏利行业精选混合</t>
+          <t>金鹰红利价值混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.83</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79.70</t>
+          <t>79.31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1943</t>
+          <t>0.0246</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>014109</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>融通内需驱动混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>75.14</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1368</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003501</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>泰达宏利睿智稳健灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>79.84</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0679</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>013280</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰达宏利睿智稳健灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>79.84</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0486</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1400,128 +1400,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.12</v>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2052</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.23</v>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300384-三联虹普.xlsx
+++ b/数据整理/stocks/A股/创业板/300384-三联虹普.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>1.12</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.82</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.99</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -583,6 +600,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1864</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1774</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013280</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015601</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>50.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -859,138 +1122,6 @@
       </c>
       <c r="H7" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519029</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏稳增混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.92</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.99</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7415</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003501</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰达宏利睿智稳健灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>73.79</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0743</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1070,17 +1201,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>92.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.37</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6956</t>
+          <t>0.7415</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1093,36 +1224,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>560002</t>
+          <t>003501</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>益民红利成长混合</t>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.03</t>
+          <t>73.79</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0955</t>
+          <t>0.0743</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1131,6 +1262,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6956</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1224,7 +1487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1394,7 +1657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300384-三联虹普.xlsx
+++ b/数据整理/stocks/A股/创业板/300384-三联虹普.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.57</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>1.12</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.82</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.99</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2224</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1986</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013280</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015601</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -845,7 +1070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1122,138 +1347,6 @@
       </c>
       <c r="H7" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519029</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏稳增混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.92</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.99</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7415</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003501</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰达宏利睿智稳健灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>73.79</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0743</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1333,17 +1426,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>92.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.37</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6956</t>
+          <t>0.7415</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1356,36 +1449,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>560002</t>
+          <t>003501</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>益民红利成长混合</t>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.03</t>
+          <t>73.79</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0955</t>
+          <t>0.0743</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1394,6 +1487,138 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6956</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1487,7 +1712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1657,7 +1882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
